--- a/APrep/Int QA Prep.xlsx
+++ b/APrep/Int QA Prep.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8220" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="8220" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Design" sheetId="1" r:id="rId1"/>
@@ -463,26 +463,28 @@
   <dimension ref="B2:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="41.85546875" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="61" style="1" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+    <row r="2" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
+    <row r="3" spans="2:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+    <row r="4" spans="2:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
@@ -495,8 +497,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -550,7 +552,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
